--- a/Data/Predictions/XGBoost/XGBoost_Classifier_Predictions_All_Features_PCA.xlsx
+++ b/Data/Predictions/XGBoost/XGBoost_Classifier_Predictions_All_Features_PCA.xlsx
@@ -672,7 +672,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -2778,7 +2778,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -2994,7 +2994,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -3048,7 +3048,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -3642,7 +3642,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -4209,7 +4209,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -7044,7 +7044,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -7206,7 +7206,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -7287,7 +7287,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -7692,7 +7692,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -7935,7 +7935,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -9096,7 +9096,7 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -9339,7 +9339,7 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -9420,7 +9420,7 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -10797,7 +10797,7 @@
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -11013,7 +11013,7 @@
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -11202,7 +11202,7 @@
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -11256,7 +11256,7 @@
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -11688,7 +11688,7 @@
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -11823,7 +11823,7 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -12768,7 +12768,7 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -13011,7 +13011,7 @@
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -13956,7 +13956,7 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -14469,7 +14469,7 @@
       </c>
       <c r="E520" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -14496,7 +14496,7 @@
       </c>
       <c r="E521" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -14712,7 +14712,7 @@
       </c>
       <c r="E529" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -15333,7 +15333,7 @@
       </c>
       <c r="E552" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -15738,7 +15738,7 @@
       </c>
       <c r="E567" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -16494,7 +16494,7 @@
       </c>
       <c r="E595" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -17088,7 +17088,7 @@
       </c>
       <c r="E617" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -17196,7 +17196,7 @@
       </c>
       <c r="E621" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -17628,7 +17628,7 @@
       </c>
       <c r="E637" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -19707,7 +19707,7 @@
       </c>
       <c r="E714" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -19788,7 +19788,7 @@
       </c>
       <c r="E717" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -19950,7 +19950,7 @@
       </c>
       <c r="E723" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -20625,7 +20625,7 @@
       </c>
       <c r="E748" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -21192,7 +21192,7 @@
       </c>
       <c r="E769" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -21921,7 +21921,7 @@
       </c>
       <c r="E796" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -21948,7 +21948,7 @@
       </c>
       <c r="E797" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -22785,7 +22785,7 @@
       </c>
       <c r="E828" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -22839,7 +22839,7 @@
       </c>
       <c r="E830" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -23082,7 +23082,7 @@
       </c>
       <c r="E839" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -25350,7 +25350,7 @@
       </c>
       <c r="E923" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -25566,7 +25566,7 @@
       </c>
       <c r="E931" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -25647,7 +25647,7 @@
       </c>
       <c r="E934" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -25809,7 +25809,7 @@
       </c>
       <c r="E940" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -25836,7 +25836,7 @@
       </c>
       <c r="E941" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -27159,7 +27159,7 @@
       </c>
       <c r="E990" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -27348,7 +27348,7 @@
       </c>
       <c r="E997" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -27429,7 +27429,7 @@
       </c>
       <c r="E1000" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -28266,7 +28266,7 @@
       </c>
       <c r="E1031" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -28752,7 +28752,7 @@
       </c>
       <c r="E1049" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -28995,7 +28995,7 @@
       </c>
       <c r="E1058" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -29292,7 +29292,7 @@
       </c>
       <c r="E1069" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -30021,7 +30021,7 @@
       </c>
       <c r="E1096" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -30183,7 +30183,7 @@
       </c>
       <c r="E1102" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -31128,7 +31128,7 @@
       </c>
       <c r="E1137" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -31479,7 +31479,7 @@
       </c>
       <c r="E1150" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -32046,7 +32046,7 @@
       </c>
       <c r="E1171" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -32586,7 +32586,7 @@
       </c>
       <c r="E1191" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -32991,7 +32991,7 @@
       </c>
       <c r="E1206" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -33126,7 +33126,7 @@
       </c>
       <c r="E1211" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -33774,7 +33774,7 @@
       </c>
       <c r="E1235" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -34071,7 +34071,7 @@
       </c>
       <c r="E1246" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -34233,7 +34233,7 @@
       </c>
       <c r="E1252" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -34368,7 +34368,7 @@
       </c>
       <c r="E1257" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -34449,7 +34449,7 @@
       </c>
       <c r="E1260" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -34692,7 +34692,7 @@
       </c>
       <c r="E1269" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -34773,7 +34773,7 @@
       </c>
       <c r="E1272" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -34935,7 +34935,7 @@
       </c>
       <c r="E1278" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -35097,7 +35097,7 @@
       </c>
       <c r="E1284" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -35394,7 +35394,7 @@
       </c>
       <c r="E1295" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -35475,7 +35475,7 @@
       </c>
       <c r="E1298" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Pickup</t>
         </is>
       </c>
     </row>
@@ -35529,7 +35529,7 @@
       </c>
       <c r="E1300" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -36204,7 +36204,7 @@
       </c>
       <c r="E1325" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -37986,7 +37986,7 @@
       </c>
       <c r="E1391" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -38634,7 +38634,7 @@
       </c>
       <c r="E1415" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>SUV</t>
         </is>
       </c>
     </row>
@@ -38661,7 +38661,7 @@
       </c>
       <c r="E1416" t="inlineStr">
         <is>
-          <t>SUV</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
@@ -38958,7 +38958,7 @@
       </c>
       <c r="E1427" t="inlineStr">
         <is>
-          <t>Sedan</t>
+          <t>Convertible</t>
         </is>
       </c>
     </row>
@@ -39309,7 +39309,7 @@
       </c>
       <c r="E1440" t="inlineStr">
         <is>
-          <t>Convertible</t>
+          <t>Sedan</t>
         </is>
       </c>
     </row>
